--- a/biology/Botanique/Heterospathe/Heterospathe.xlsx
+++ b/biology/Botanique/Heterospathe/Heterospathe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heterospathe est un genre de la famille des Arecaceae (Palmiers), comprenant des espèces natives des Philippines.
 Ce genre possède les synonymes suivants :
@@ -516,7 +528,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sous-famille des Arecoideae
 Tribu des Areceae</t>
@@ -547,9 +561,11 @@
           <t>Liste des espèces, sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (15 septembre 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (15 septembre 2014) :
 Heterospathe annectens
 Heterospathe arfakiana
 Heterospathe brevicaulis
@@ -589,13 +605,13 @@
 Heterospathe trispatha
 Heterospathe uniformis
 Heterospathe woodfordiana
-Selon GRIN            (15 septembre 2014)[3] :
+Selon GRIN            (15 septembre 2014) :
 Heterospathe elata Scheff.
 Heterospathe glauca (Scheff.) H. E. Moore
 Heterospathe salomonensis Becc.
-Selon ITIS      (15 septembre 2014)[4] :
+Selon ITIS      (15 septembre 2014) :
 Heterospathe elata Scheff.
-Selon World Checklist of Selected Plant Families (WCSP)  (15 septembre 2014)[5] :
+Selon World Checklist of Selected Plant Families (WCSP)  (15 septembre 2014) :
 Heterospathe annectens H.E.Moore (1969)
 Heterospathe arfakiana (Becc.) H.E.Moore (1970)
 Heterospathe barfodii L.M.Gardiner &amp; W.J.Baker (2012)
@@ -641,7 +657,7 @@
 Heterospathe trispatha Fernando (1990)
 Heterospathe uniformis Dowe (1996)
 Heterospathe woodfordiana Becc. (1914)
-Selon The Plant List            (15 septembre 2014)[6] :
+Selon The Plant List            (15 septembre 2014) :
 Heterospathe annectens H.E.Moore
 Heterospathe arfakiana (Becc.) H.E.Moore
 Heterospathe brevicaulis Fernando
@@ -681,7 +697,7 @@
 Heterospathe trispatha Fernando
 Heterospathe uniformis Dowe
 Heterospathe woodfordiana Becc.
-Selon Tropicos                                           (15 septembre 2014)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (15 septembre 2014) (Attention liste brute contenant possiblement des synonymes) :
 Heterospathe annectens H.E. Moore
 Heterospathe arfakiana (Becc.) H.E. Moore
 Heterospathe brevicaulis Fernando
